--- a/src/test/resources/data/projectData.xlsx
+++ b/src/test/resources/data/projectData.xlsx
@@ -20,12 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">projectName</t>
   </si>
   <si>
     <t xml:space="preserve">avatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gw.alipayobjects.com/zos/rmsportal/WdGqmHpayyMjiEhcKoVE.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gw.alipayobjects.com/zos/rmsportal/zOsKZmFRdUtvpqCImOVY.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gw.alipayobjects.com/zos/rmsportal/dURIMkkrRFpPgTuzkwnB.png</t>
   </si>
 </sst>
 </file>
@@ -35,7 +44,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -64,6 +73,12 @@
       <name val="Source Code Pro"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A8759"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,12 +123,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -143,7 +162,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFA9B7C6"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF6A8759"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -197,12 +216,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -213,31 +233,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>222</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>222</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>3333</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>333</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>4444</v>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://gw.alipayobjects.com/zos/rmsportal/WdGqmHpayyMjiEhcKoVE.png"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://gw.alipayobjects.com/zos/rmsportal/zOsKZmFRdUtvpqCImOVY.png"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://gw.alipayobjects.com/zos/rmsportal/dURIMkkrRFpPgTuzkwnB.png"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
